--- a/O2S InsuranceExpertise/Templates/BC_DangKyBaoHiemYTe_NgoaiTru.xlsx
+++ b/O2S InsuranceExpertise/Templates/BC_DangKyBaoHiemYTe_NgoaiTru.xlsx
@@ -412,6 +412,9 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,9 +432,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,22 +732,21 @@
     <col min="9" max="9" width="17.140625" style="6" customWidth="1"/>
     <col min="10" max="10" width="5.85546875" style="6" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17" style="1" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16" width="18.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="18.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.42578125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" style="6" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" style="1" customWidth="1"/>
     <col min="22" max="22" width="15.28515625" style="1" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="27" t="s">
         <v>49</v>
       </c>
     </row>
@@ -756,49 +755,49 @@
         <v>50</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
       <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
@@ -941,11 +940,11 @@
       </c>
     </row>
     <row r="9" spans="1:22" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="10"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -967,10 +966,10 @@
       <c r="V9" s="8"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S12" s="27" t="s">
+      <c r="S12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="T12" s="27"/>
+      <c r="T12" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -982,7 +981,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="78" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
   </headerFooter>
